--- a/src/analises/result/excel/mefs_aleatorias/resultDepthAlltranspair.xlsx
+++ b/src/analises/result/excel/mefs_aleatorias/resultDepthAlltranspair.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/excel/mefs_aleatorias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6236B802-AF6F-CB4A-B586-6B3BD1A9A5DF}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1161642F-77F8-AF41-A958-4A0603A47F50}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="2360" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="9120" yWindow="3020" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultDepthAlltranspair" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -926,11 +926,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T883"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:T21"/>
+      <selection sqref="A1:J883"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/src/analises/result/excel/mefs_aleatorias/resultDepthAlltranspair.xlsx
+++ b/src/analises/result/excel/mefs_aleatorias/resultDepthAlltranspair.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matheus/eclipse-workspace/H-SwitchCover/src/analises/result/excel/mefs_aleatorias/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC851B08-D0E2-5549-BBDA-F40020338F86}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D705B512-8E5F-7742-AB44-0BAA91C211A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="3020" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="4140" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resultDepthAlltranspair" sheetId="1" r:id="rId1"/>
@@ -930,7 +930,7 @@
   <dimension ref="A1:T883"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J883"/>
+      <selection activeCell="M2" sqref="M2:T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
